--- a/BalanceSheet/LHX_bal.xlsx
+++ b/BalanceSheet/LHX_bal.xlsx
@@ -507,16 +507,16 @@
         <v>904000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-79000000.0</v>
+        <v>973000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-36000000.0</v>
+        <v>894000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>135000000.0</v>
+        <v>859000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>40000000.0</v>
+        <v>990000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1219000000.0</v>
@@ -2183,16 +2183,16 @@
         <v>1373000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>175000000.0</v>
+        <v>1406000000.0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>114000000.0</v>
+        <v>1207000000.0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-369000000.0</v>
+        <v>1094000000.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>253000000.0</v>
+        <v>1422000000.0</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1261000000.0</v>
@@ -3482,16 +3482,16 @@
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-73000000.0</v>
+        <v>1118000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-33000000.0</v>
+        <v>1286000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-74000000.0</v>
+        <v>1346000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>1290000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1379000000.0</v>
@@ -5040,10 +5040,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>6102000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>6492000000.0</v>
@@ -5169,10 +5167,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>7078000000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>7768000000.0</v>
